--- a/Code/Polygons_analysis/Santa_Fe_NM/clustering_analysis/urban_pattern_analysis.xlsx
+++ b/Code/Polygons_analysis/Santa_Fe_NM/clustering_analysis/urban_pattern_analysis.xlsx
@@ -571,22 +571,22 @@
         <v>-0.2277396139008375</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.4188839765137937</v>
+        <v>-0.4188839765183619</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4322317234559526</v>
+        <v>0.4322317234524865</v>
       </c>
       <c r="P2" t="n">
         <v>0.08576659820738178</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.013432331987122</v>
+        <v>1.013432331984198</v>
       </c>
       <c r="R2" t="n">
         <v>-0.06243364724168021</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.5420866432868269</v>
+        <v>-0.5420866432868264</v>
       </c>
     </row>
     <row r="3">
@@ -632,22 +632,22 @@
         <v>0.7068861197802674</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3440878636931556</v>
+        <v>0.3440878636925367</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7623057338354879</v>
+        <v>0.7623057338361505</v>
       </c>
       <c r="P3" t="n">
         <v>0.7089133245145069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5055973790193639</v>
+        <v>0.5055973790190046</v>
       </c>
       <c r="R3" t="n">
         <v>-0.01664541836768119</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.3602596870752138</v>
+        <v>-0.360259687075217</v>
       </c>
     </row>
     <row r="4">
@@ -693,22 +693,22 @@
         <v>-0.3631125557354667</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1530562361029445</v>
+        <v>-0.1530562361022582</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.4437209123311094</v>
+        <v>-0.4437209123311981</v>
       </c>
       <c r="P4" t="n">
         <v>-0.3883199899853004</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.3502010757786623</v>
+        <v>-0.3502010757782481</v>
       </c>
       <c r="R4" t="n">
         <v>0.01376550583195754</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2356849579087173</v>
+        <v>0.2356849579087189</v>
       </c>
     </row>
   </sheetData>
@@ -960,58 +960,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.000208622600809</v>
+        <v>-1.000208622600739</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.054924692468483</v>
+        <v>-1.05492469246844</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.085293500225385</v>
+        <v>-1.085293500225349</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.059889107536245</v>
+        <v>-1.059889107536175</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2364423329802725</v>
+        <v>0.2364423329803589</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2174642378955258</v>
+        <v>0.2174642378956628</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.9569706766898938</v>
+        <v>-0.9569706766901412</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.09249156973017</v>
+        <v>-1.092491569730187</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.086536474540177</v>
+        <v>-1.08653647454016</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2190540015109339</v>
+        <v>0.2190540015110852</v>
       </c>
       <c r="L2" t="n">
-        <v>0.520120265798365</v>
+        <v>0.520120265798344</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.9384122216924096</v>
+        <v>-0.9384122216925637</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.5372572873870565</v>
+        <v>-0.5372572873863206</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.8071351651050294</v>
+        <v>-0.8071351651033186</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.9235994542102762</v>
+        <v>-0.9235994542103461</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.3779064203416652</v>
+        <v>-0.377906420339462</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.7219307982217131</v>
+        <v>-0.7219307982215569</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.3429002567410248</v>
+        <v>-0.3429002567407233</v>
       </c>
     </row>
     <row r="3">
@@ -1021,58 +1021,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.58266851981053</v>
+        <v>0.5826685198099213</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6502636788653424</v>
+        <v>0.6502636788649678</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6372332201315531</v>
+        <v>0.637233220131609</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6230740030820605</v>
+        <v>0.6230740030821353</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.01790628999213892</v>
+        <v>-0.01790628999231723</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3662966106823578</v>
+        <v>-0.3662966106823449</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6590635072125836</v>
+        <v>0.6590635072128349</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6124133708997724</v>
+        <v>0.6124133708998445</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6392882841846097</v>
+        <v>0.6392882841848293</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.3650244973940263</v>
+        <v>-0.3650244973939855</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.09481820410483638</v>
+        <v>-0.09481820410460452</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6229808212436396</v>
+        <v>0.6229808212440991</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5439929152023788</v>
+        <v>0.5439929152034519</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.05185950721824663</v>
+        <v>-0.051859507225497</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1819274215208621</v>
+        <v>0.1819274215203755</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.5604271694501112</v>
+        <v>-0.5604271694565405</v>
       </c>
       <c r="R3" t="n">
-        <v>1.323234702743532</v>
+        <v>1.323234702742504</v>
       </c>
       <c r="S3" t="n">
-        <v>1.553747696787264</v>
+        <v>1.553747696787365</v>
       </c>
     </row>
     <row r="4">
@@ -1082,58 +1082,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.516005706460941</v>
+        <v>1.516005706460996</v>
       </c>
       <c r="C4" t="n">
-        <v>1.508509210393249</v>
+        <v>1.508509210393344</v>
       </c>
       <c r="D4" t="n">
-        <v>1.542199618063279</v>
+        <v>1.542199618063359</v>
       </c>
       <c r="E4" t="n">
-        <v>1.553309230365886</v>
+        <v>1.55330923036582</v>
       </c>
       <c r="F4" t="n">
-        <v>0.300012306865367</v>
+        <v>0.3000123068641453</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2930867219444466</v>
+        <v>-0.2930867219447996</v>
       </c>
       <c r="H4" t="n">
-        <v>1.012623217983013</v>
+        <v>1.012623217983578</v>
       </c>
       <c r="I4" t="n">
-        <v>1.549786083120944</v>
+        <v>1.549786083121082</v>
       </c>
       <c r="J4" t="n">
-        <v>1.54402416297186</v>
+        <v>1.54402416297189</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.2989810815147776</v>
+        <v>-0.2989810815151489</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.635624457938429</v>
+        <v>-0.6356244579390545</v>
       </c>
       <c r="M4" t="n">
-        <v>1.038767035859143</v>
+        <v>1.038767035859562</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5749855259502291</v>
+        <v>0.574985525949478</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9067478760450898</v>
+        <v>0.9067478760472304</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9114424545754706</v>
+        <v>0.9114424545760151</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4135669870714715</v>
+        <v>0.4135669870733349</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.06699040575812928</v>
+        <v>-0.06699040575774311</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.3961708641907351</v>
+        <v>-0.3961708641911807</v>
       </c>
     </row>
     <row r="5">
@@ -1143,58 +1143,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.563067964425292</v>
+        <v>-1.563067964425849</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.491310986243389</v>
+        <v>-1.491310986243735</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.200864150509252</v>
+        <v>-1.200864150509227</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.178680121434617</v>
+        <v>-1.178680121434654</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.069638851903548</v>
+        <v>-1.069638851904521</v>
       </c>
       <c r="G5" t="n">
-        <v>6.114394023407949</v>
+        <v>6.114394023407606</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.666148792236219</v>
+        <v>-1.666148792235423</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.064315384665863</v>
+        <v>-1.064315384665746</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.108817065579424</v>
+        <v>-1.108817065579272</v>
       </c>
       <c r="K5" t="n">
-        <v>6.108088061139421</v>
+        <v>6.108088061139092</v>
       </c>
       <c r="L5" t="n">
-        <v>5.136284501123295</v>
+        <v>5.136284501122845</v>
       </c>
       <c r="M5" t="n">
-        <v>-1.616799795570641</v>
+        <v>-1.616799795569618</v>
       </c>
       <c r="N5" t="n">
-        <v>-4.178674379856714</v>
+        <v>-4.178674379852496</v>
       </c>
       <c r="O5" t="n">
-        <v>-3.783861502617523</v>
+        <v>-3.783861502611323</v>
       </c>
       <c r="P5" t="n">
-        <v>-3.097210306398711</v>
+        <v>-3.097210306398783</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.1620067198352614</v>
+        <v>-0.1620067198322264</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.9543463078234709</v>
+        <v>-0.9543463078245717</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.6420474812149162</v>
+        <v>-0.6420474812152712</v>
       </c>
     </row>
     <row r="6">
@@ -1204,58 +1204,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1569014133521774</v>
+        <v>0.1569014133523213</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09692417289168306</v>
+        <v>0.09692417289170661</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0624859883546009</v>
+        <v>0.06248598835449963</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1134973667160793</v>
+        <v>0.1134973667160633</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6606302233097225</v>
+        <v>0.6606302233104557</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3147303418616298</v>
+        <v>-0.3147303418616134</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07113971434162168</v>
+        <v>0.07113971434139615</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07961842945639963</v>
+        <v>0.07961842945627962</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07882413308627585</v>
+        <v>0.07882413308615026</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.3176265280858098</v>
+        <v>-0.317626528085793</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.2598184704575727</v>
+        <v>-0.2598184704576378</v>
       </c>
       <c r="M6" t="n">
-        <v>0.114538952881802</v>
+        <v>0.1145389528816042</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1442283541932864</v>
+        <v>0.1442283541938076</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1459848282990962</v>
+        <v>0.1459848283015568</v>
       </c>
       <c r="P6" t="n">
-        <v>0.03404232357720556</v>
+        <v>0.03404232357755772</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.004615545705317915</v>
+        <v>-0.004615545703328953</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.6798845735047701</v>
+        <v>-0.6798845735048433</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.6071189113911183</v>
+        <v>-0.607118911391213</v>
       </c>
     </row>
     <row r="7">
@@ -1265,58 +1265,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1959699500375811</v>
+        <v>-0.1959699500358242</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.06747716935824423</v>
+        <v>-0.06747716935716859</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.03374507464893984</v>
+        <v>-0.03374507464930624</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.2098291034122952</v>
+        <v>-0.2098291034124531</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.836908556861401</v>
+        <v>-1.836908556858269</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1786026409064495</v>
+        <v>-0.1786026409055745</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5455242907205046</v>
+        <v>0.5455242907185741</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.01048726216357725</v>
+        <v>-0.01048726216410034</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.08264056501403463</v>
+        <v>-0.08264056501475053</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1803057653902751</v>
+        <v>-0.1803057653894419</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.5571914062489078</v>
+        <v>-0.5571914062483972</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4326358504330154</v>
+        <v>0.4326358504306813</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.9162295683012726</v>
+        <v>-0.9162295683056111</v>
       </c>
       <c r="O7" t="n">
-        <v>1.213167248477767</v>
+        <v>1.213167248476539</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4301693468780621</v>
+        <v>0.4301693468779845</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.362817783068253</v>
+        <v>2.362817783062849</v>
       </c>
       <c r="R7" t="n">
-        <v>1.296239698918035</v>
+        <v>1.296239698920853</v>
       </c>
       <c r="S7" t="n">
-        <v>0.490747837010755</v>
+        <v>0.4907478370108428</v>
       </c>
     </row>
     <row r="8">
@@ -1326,58 +1326,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.8438316868453245</v>
+        <v>-0.8438316868458611</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.809788293834374</v>
+        <v>-0.8097882938346759</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.7882057793492219</v>
+        <v>-0.7882057793491004</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.8246969890940331</v>
+        <v>-0.8246969890941033</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.8155946887234196</v>
+        <v>-0.8155946887247354</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1177175108940862</v>
+        <v>-0.1177175108944745</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5934337336627901</v>
+        <v>-0.5934337336619021</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.8178931366268813</v>
+        <v>-0.8178931366266193</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.8111071246016552</v>
+        <v>-0.8111071246014446</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.1056722517866856</v>
+        <v>-0.1056722517871104</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.4748921510225743</v>
+        <v>-0.4748921510220268</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.6325251902823745</v>
+        <v>-0.6325251902817126</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8266311023003149</v>
+        <v>0.826631102298628</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4806522180942524</v>
+        <v>0.4806522180947616</v>
       </c>
       <c r="P8" t="n">
-        <v>0.964610279816195</v>
+        <v>0.9646102798157777</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.2860257984669817</v>
+        <v>-0.2860257984641548</v>
       </c>
       <c r="R8" t="n">
-        <v>0.08224944947625468</v>
+        <v>0.08224944947551219</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.4645318598750238</v>
+        <v>-0.4645318598750647</v>
       </c>
     </row>
   </sheetData>
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31.6056549220852</v>
+        <v>31.60565492207965</v>
       </c>
     </row>
     <row r="3">
@@ -1434,7 +1434,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>31.50273378837203</v>
+        <v>31.50273378836667</v>
       </c>
     </row>
     <row r="4">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21.2586130790964</v>
+        <v>21.25861307909286</v>
       </c>
     </row>
     <row r="5">
@@ -1460,7 +1460,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12.96196774679789</v>
+        <v>12.96196774676068</v>
       </c>
     </row>
     <row r="6">
@@ -1473,7 +1473,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12.13875313317612</v>
+        <v>12.13875313312641</v>
       </c>
     </row>
     <row r="7">
@@ -1486,7 +1486,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7.024288295896574</v>
+        <v>7.024288295896234</v>
       </c>
     </row>
     <row r="8">
@@ -1499,7 +1499,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.901830798583256</v>
+        <v>2.901830798584469</v>
       </c>
     </row>
     <row r="9">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.789917734314578</v>
+        <v>2.789917734315484</v>
       </c>
     </row>
     <row r="10">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.52431554218405</v>
+        <v>2.524315542176122</v>
       </c>
     </row>
     <row r="11">
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.321223901152825</v>
+        <v>2.321223901152857</v>
       </c>
     </row>
     <row r="12">
@@ -1551,7 +1551,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.307584936913984</v>
+        <v>2.30758493691394</v>
       </c>
     </row>
     <row r="13">
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.188964882982955</v>
+        <v>2.188964882982742</v>
       </c>
     </row>
     <row r="14">
@@ -1577,7 +1577,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.174916575805033</v>
+        <v>2.174916575803363</v>
       </c>
     </row>
     <row r="15">
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2.151435991267415</v>
+        <v>2.151435991267486</v>
       </c>
     </row>
     <row r="16">
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.0581833883362</v>
+        <v>2.058183388334021</v>
       </c>
     </row>
     <row r="17">
@@ -1616,7 +1616,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.732769991850918</v>
+        <v>1.732769991853043</v>
       </c>
     </row>
     <row r="18">
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.727729978377715</v>
+        <v>1.727729978373627</v>
       </c>
     </row>
     <row r="19">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.22409086953638</v>
+        <v>1.224090869536981</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Polygons_analysis/Santa_Fe_NM/clustering_analysis/urban_pattern_analysis.xlsx
+++ b/Code/Polygons_analysis/Santa_Fe_NM/clustering_analysis/urban_pattern_analysis.xlsx
@@ -11,6 +11,10 @@
     <sheet name="Pattern_Cluster_Matrix" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Cluster_Centers" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Feature_Importance" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Polygons_Original" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Polygons_Cluster" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Classification_Compare" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Accuracy_Summary" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,123 +535,123 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1387538523706841</v>
+        <v>0.3980562286972936</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.08762961723873841</v>
+        <v>0.4771096363163967</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.275978825414498</v>
+        <v>0.4834362711316737</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.4148456694379671</v>
+        <v>0.5172275201011114</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.638968758546006</v>
+        <v>0.01941037597963736</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1017347238363731</v>
+        <v>-0.3353998088077557</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.07200570022347785</v>
+        <v>0.922081229227981</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2739652533447647</v>
+        <v>0.5707977703420917</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.314688422586319</v>
+        <v>0.5622165002683626</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.1257274617016524</v>
+        <v>-0.3308916117045437</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.3815578191774123</v>
+        <v>-0.8050684065647882</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.2277396139008375</v>
+        <v>0.9455738782878638</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.4188839765183619</v>
+        <v>0.8088290364074412</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4322317234524865</v>
+        <v>0.9170771162554328</v>
       </c>
       <c r="P2" t="n">
-        <v>0.08576659820738178</v>
+        <v>1.270001213050933</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.013432331984198</v>
+        <v>0.2144898162711851</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.06243364724168021</v>
+        <v>0.1347402299711626</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.5420866432868264</v>
+        <v>-0.223889469916504</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5343151593592487</v>
+        <v>0.8759649004370724</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5674578083097801</v>
+        <v>0.803818194866546</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6212170571360861</v>
+        <v>0.9091387547596637</v>
       </c>
       <c r="E3" t="n">
-        <v>0.610667342339009</v>
+        <v>0.880067123813173</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.05052005936836301</v>
+        <v>-0.0371220916318843</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2823303796362116</v>
+        <v>-0.2417893146629527</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6770615112684572</v>
+        <v>0.007360665911354647</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6502927203132962</v>
+        <v>0.823645905882227</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6381637381983362</v>
+        <v>0.8082501639286575</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.2796503840056501</v>
+        <v>-0.2433210500643311</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.7603608321913565</v>
+        <v>-0.6450196373580284</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7068861197802674</v>
+        <v>0.140195421303922</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3440878636925367</v>
+        <v>0.2690506857492391</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7623057338361505</v>
+        <v>0.6231617800177937</v>
       </c>
       <c r="P3" t="n">
-        <v>0.7089133245145069</v>
+        <v>0.4267108126866304</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5055973790190046</v>
+        <v>0.3895428107140299</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.01664541836768119</v>
+        <v>-0.09220032557098554</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.360259687075217</v>
+        <v>-0.5420866432868269</v>
       </c>
     </row>
     <row r="4">
@@ -657,58 +661,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.2770347894726191</v>
+        <v>-0.2229436477108874</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2988134646869011</v>
+        <v>-0.234404995666578</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3132723518875469</v>
+        <v>-0.2501348396030684</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.2969096713027001</v>
+        <v>-0.2552696218687198</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1532776287788037</v>
+        <v>-0.0002264880436586643</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1598497985607585</v>
+        <v>0.1216785243037957</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.3590326829735158</v>
+        <v>-0.2468697499156411</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.329083368372947</v>
+        <v>-0.2620321928755216</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.3194198265232331</v>
+        <v>-0.2576910885953841</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1602523192108616</v>
+        <v>0.1206805697964556</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4387756649628394</v>
+        <v>0.300687526731681</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.3631125557354667</v>
+        <v>-0.270845757050622</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1530562361022582</v>
+        <v>-0.2515611678085485</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.4437209123311981</v>
+        <v>-0.3276421350038249</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.3883199899853004</v>
+        <v>-0.3955617651717978</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.3502010757782481</v>
+        <v>-0.109136325767516</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01376550583195754</v>
+        <v>-0.02363735124951202</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2356849579087189</v>
+        <v>0.1319820777493114</v>
       </c>
     </row>
   </sheetData>
@@ -765,19 +769,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>12.5</v>
       </c>
       <c r="D2" t="n">
-        <v>85.71428571428571</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G2" t="n">
         <v>33.33333333333333</v>
@@ -799,16 +803,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="G3" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>25</v>
@@ -821,22 +825,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90.90909090909091</v>
+        <v>100</v>
       </c>
       <c r="C4" t="n">
         <v>87.5</v>
       </c>
       <c r="D4" t="n">
-        <v>14.28571428571428</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="G4" t="n">
-        <v>33.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="H4" t="n">
         <v>50</v>
@@ -960,58 +964,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.000208622600739</v>
+        <v>-1.000208622600809</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.05492469246844</v>
+        <v>-1.054924692468483</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.085293500225349</v>
+        <v>-1.085293500225385</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.059889107536175</v>
+        <v>-1.059889107536245</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2364423329803589</v>
+        <v>0.2364423329802725</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2174642378956628</v>
+        <v>0.2174642378955258</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.9569706766901412</v>
+        <v>-0.9569706766898938</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.092491569730187</v>
+        <v>-1.09249156973017</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.08653647454016</v>
+        <v>-1.086536474540177</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2190540015110852</v>
+        <v>0.2190540015109339</v>
       </c>
       <c r="L2" t="n">
-        <v>0.520120265798344</v>
+        <v>0.520120265798365</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.9384122216925637</v>
+        <v>-0.9384122216924096</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.5372572873863206</v>
+        <v>-0.5372572873870565</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.8071351651033186</v>
+        <v>-0.8071351651050294</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.9235994542103461</v>
+        <v>-0.9235994542102762</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.377906420339462</v>
+        <v>-0.3779064203416652</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.7219307982215569</v>
+        <v>-0.7219307982217131</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.3429002567407233</v>
+        <v>-0.3429002567410248</v>
       </c>
     </row>
     <row r="3">
@@ -1021,58 +1025,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5826685198099213</v>
+        <v>0.58266851981053</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6502636788649678</v>
+        <v>0.6502636788653424</v>
       </c>
       <c r="D3" t="n">
-        <v>0.637233220131609</v>
+        <v>0.6372332201315531</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6230740030821353</v>
+        <v>0.6230740030820605</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.01790628999231723</v>
+        <v>-0.01790628999213892</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3662966106823449</v>
+        <v>-0.3662966106823578</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6590635072128349</v>
+        <v>0.6590635072125836</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6124133708998445</v>
+        <v>0.6124133708997724</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6392882841848293</v>
+        <v>0.6392882841846097</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.3650244973939855</v>
+        <v>-0.3650244973940263</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.09481820410460452</v>
+        <v>-0.09481820410483638</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6229808212440991</v>
+        <v>0.6229808212436396</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5439929152034519</v>
+        <v>0.5439929152023788</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.051859507225497</v>
+        <v>-0.05185950721824663</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1819274215203755</v>
+        <v>0.1819274215208621</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.5604271694565405</v>
+        <v>-0.5604271694501112</v>
       </c>
       <c r="R3" t="n">
-        <v>1.323234702742504</v>
+        <v>1.323234702743532</v>
       </c>
       <c r="S3" t="n">
-        <v>1.553747696787365</v>
+        <v>1.553747696787264</v>
       </c>
     </row>
     <row r="4">
@@ -1082,58 +1086,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.516005706460996</v>
+        <v>1.516005706460941</v>
       </c>
       <c r="C4" t="n">
-        <v>1.508509210393344</v>
+        <v>1.508509210393249</v>
       </c>
       <c r="D4" t="n">
-        <v>1.542199618063359</v>
+        <v>1.542199618063279</v>
       </c>
       <c r="E4" t="n">
-        <v>1.55330923036582</v>
+        <v>1.553309230365886</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3000123068641453</v>
+        <v>0.300012306865367</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2930867219447996</v>
+        <v>-0.2930867219444466</v>
       </c>
       <c r="H4" t="n">
-        <v>1.012623217983578</v>
+        <v>1.012623217983013</v>
       </c>
       <c r="I4" t="n">
-        <v>1.549786083121082</v>
+        <v>1.549786083120944</v>
       </c>
       <c r="J4" t="n">
-        <v>1.54402416297189</v>
+        <v>1.54402416297186</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.2989810815151489</v>
+        <v>-0.2989810815147776</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.6356244579390545</v>
+        <v>-0.635624457938429</v>
       </c>
       <c r="M4" t="n">
-        <v>1.038767035859562</v>
+        <v>1.038767035859143</v>
       </c>
       <c r="N4" t="n">
-        <v>0.574985525949478</v>
+        <v>0.5749855259502291</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9067478760472304</v>
+        <v>0.9067478760450898</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9114424545760151</v>
+        <v>0.9114424545754706</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4135669870733349</v>
+        <v>0.4135669870714715</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.06699040575774311</v>
+        <v>-0.06699040575812928</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.3961708641911807</v>
+        <v>-0.3961708641907351</v>
       </c>
     </row>
     <row r="5">
@@ -1143,58 +1147,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.563067964425849</v>
+        <v>-1.563067964425292</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.491310986243735</v>
+        <v>-1.491310986243389</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.200864150509227</v>
+        <v>-1.200864150509252</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.178680121434654</v>
+        <v>-1.178680121434617</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.069638851904521</v>
+        <v>-1.069638851903548</v>
       </c>
       <c r="G5" t="n">
-        <v>6.114394023407606</v>
+        <v>6.114394023407949</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.666148792235423</v>
+        <v>-1.666148792236219</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.064315384665746</v>
+        <v>-1.064315384665863</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.108817065579272</v>
+        <v>-1.108817065579424</v>
       </c>
       <c r="K5" t="n">
-        <v>6.108088061139092</v>
+        <v>6.108088061139421</v>
       </c>
       <c r="L5" t="n">
-        <v>5.136284501122845</v>
+        <v>5.136284501123295</v>
       </c>
       <c r="M5" t="n">
-        <v>-1.616799795569618</v>
+        <v>-1.616799795570641</v>
       </c>
       <c r="N5" t="n">
-        <v>-4.178674379852496</v>
+        <v>-4.178674379856714</v>
       </c>
       <c r="O5" t="n">
-        <v>-3.783861502611323</v>
+        <v>-3.783861502617523</v>
       </c>
       <c r="P5" t="n">
-        <v>-3.097210306398783</v>
+        <v>-3.097210306398711</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.1620067198322264</v>
+        <v>-0.1620067198352614</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.9543463078245717</v>
+        <v>-0.9543463078234709</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.6420474812152712</v>
+        <v>-0.6420474812149162</v>
       </c>
     </row>
     <row r="6">
@@ -1204,58 +1208,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1569014133523213</v>
+        <v>0.1569014133521774</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09692417289170661</v>
+        <v>0.09692417289168306</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06248598835449963</v>
+        <v>0.0624859883546009</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1134973667160633</v>
+        <v>0.1134973667160793</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6606302233104557</v>
+        <v>0.6606302233097225</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3147303418616134</v>
+        <v>-0.3147303418616298</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07113971434139615</v>
+        <v>0.07113971434162168</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07961842945627962</v>
+        <v>0.07961842945639963</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07882413308615026</v>
+        <v>0.07882413308627585</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.317626528085793</v>
+        <v>-0.3176265280858098</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.2598184704576378</v>
+        <v>-0.2598184704575727</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1145389528816042</v>
+        <v>0.114538952881802</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1442283541938076</v>
+        <v>0.1442283541932864</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1459848283015568</v>
+        <v>0.1459848282990962</v>
       </c>
       <c r="P6" t="n">
-        <v>0.03404232357755772</v>
+        <v>0.03404232357720556</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.004615545703328953</v>
+        <v>-0.004615545705317915</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.6798845735048433</v>
+        <v>-0.6798845735047701</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.607118911391213</v>
+        <v>-0.6071189113911183</v>
       </c>
     </row>
     <row r="7">
@@ -1265,58 +1269,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1959699500358242</v>
+        <v>-0.1959699500375811</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.06747716935716859</v>
+        <v>-0.06747716935824423</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.03374507464930624</v>
+        <v>-0.03374507464893984</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.2098291034124531</v>
+        <v>-0.2098291034122952</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.836908556858269</v>
+        <v>-1.836908556861401</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1786026409055745</v>
+        <v>-0.1786026409064495</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5455242907185741</v>
+        <v>0.5455242907205046</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.01048726216410034</v>
+        <v>-0.01048726216357725</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.08264056501475053</v>
+        <v>-0.08264056501403463</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1803057653894419</v>
+        <v>-0.1803057653902751</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.5571914062483972</v>
+        <v>-0.5571914062489078</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4326358504306813</v>
+        <v>0.4326358504330154</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.9162295683056111</v>
+        <v>-0.9162295683012726</v>
       </c>
       <c r="O7" t="n">
-        <v>1.213167248476539</v>
+        <v>1.213167248477767</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4301693468779845</v>
+        <v>0.4301693468780621</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.362817783062849</v>
+        <v>2.362817783068253</v>
       </c>
       <c r="R7" t="n">
-        <v>1.296239698920853</v>
+        <v>1.296239698918035</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4907478370108428</v>
+        <v>0.490747837010755</v>
       </c>
     </row>
     <row r="8">
@@ -1326,58 +1330,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.8438316868458611</v>
+        <v>-0.8438316868453245</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.8097882938346759</v>
+        <v>-0.809788293834374</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.7882057793491004</v>
+        <v>-0.7882057793492219</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.8246969890941033</v>
+        <v>-0.8246969890940331</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.8155946887247354</v>
+        <v>-0.8155946887234196</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1177175108944745</v>
+        <v>-0.1177175108940862</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5934337336619021</v>
+        <v>-0.5934337336627901</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.8178931366266193</v>
+        <v>-0.8178931366268813</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.8111071246014446</v>
+        <v>-0.8111071246016552</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.1056722517871104</v>
+        <v>-0.1056722517866856</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.4748921510220268</v>
+        <v>-0.4748921510225743</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.6325251902817126</v>
+        <v>-0.6325251902823745</v>
       </c>
       <c r="N8" t="n">
-        <v>0.826631102298628</v>
+        <v>0.8266311023003149</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4806522180947616</v>
+        <v>0.4806522180942524</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9646102798157777</v>
+        <v>0.964610279816195</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.2860257984641548</v>
+        <v>-0.2860257984669817</v>
       </c>
       <c r="R8" t="n">
-        <v>0.08224944947551219</v>
+        <v>0.08224944947625468</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.4645318598750647</v>
+        <v>-0.4645318598750238</v>
       </c>
     </row>
   </sheetData>
@@ -1421,7 +1425,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31.60565492207965</v>
+        <v>31.6056549220852</v>
       </c>
     </row>
     <row r="3">
@@ -1434,7 +1438,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>31.50273378836667</v>
+        <v>31.50273378837203</v>
       </c>
     </row>
     <row r="4">
@@ -1447,7 +1451,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21.25861307909286</v>
+        <v>21.2586130790964</v>
       </c>
     </row>
     <row r="5">
@@ -1460,7 +1464,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12.96196774676068</v>
+        <v>12.96196774679789</v>
       </c>
     </row>
     <row r="6">
@@ -1473,7 +1477,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12.13875313312641</v>
+        <v>12.13875313317612</v>
       </c>
     </row>
     <row r="7">
@@ -1486,7 +1490,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7.024288295896234</v>
+        <v>7.024288295896574</v>
       </c>
     </row>
     <row r="8">
@@ -1499,7 +1503,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.901830798584469</v>
+        <v>2.901830798583256</v>
       </c>
     </row>
     <row r="9">
@@ -1512,7 +1516,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.789917734315484</v>
+        <v>2.789917734314578</v>
       </c>
     </row>
     <row r="10">
@@ -1525,7 +1529,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.524315542176122</v>
+        <v>2.52431554218405</v>
       </c>
     </row>
     <row r="11">
@@ -1538,7 +1542,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.321223901152857</v>
+        <v>2.321223901152825</v>
       </c>
     </row>
     <row r="12">
@@ -1551,7 +1555,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.30758493691394</v>
+        <v>2.307584936913984</v>
       </c>
     </row>
     <row r="13">
@@ -1564,7 +1568,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.188964882982742</v>
+        <v>2.188964882982955</v>
       </c>
     </row>
     <row r="14">
@@ -1577,7 +1581,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.174916575803363</v>
+        <v>2.174916575805033</v>
       </c>
     </row>
     <row r="15">
@@ -1590,7 +1594,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2.151435991267486</v>
+        <v>2.151435991267415</v>
       </c>
     </row>
     <row r="16">
@@ -1603,7 +1607,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.058183388334021</v>
+        <v>2.0581833883362</v>
       </c>
     </row>
     <row r="17">
@@ -1616,7 +1620,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.732769991853043</v>
+        <v>1.732769991850918</v>
       </c>
     </row>
     <row r="18">
@@ -1629,7 +1633,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.727729978373627</v>
+        <v>1.727729978377715</v>
       </c>
     </row>
     <row r="19">
@@ -1642,7 +1646,2731 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.224090869536981</v>
+        <v>1.22409086953638</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>poly_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>subpoly_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>original_pattern</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>poly_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>subpoly_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>cluster</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>cluster_pattern</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>cluster_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>organico_bajo_edge</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>organico_bajo_edge</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>organico_bajo_edge</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>organico_bajo_edge</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>organico_bajo_edge</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>organico_bajo_edge</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>organico_bajo_edge</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>organico_bajo_edge</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>organico_bajo_edge</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>organico_bajo_edge</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>organico_bajo_edge</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>organico_bajo_edge</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>organico_bajo_edge</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>organico_bajo_edge</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>organico_bajo_edge</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>organico_bajo_edge</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>organico_bajo_edge</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>organico_bajo_edge</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>organico_bajo_edge</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>organico_alto_edge</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>5</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>organico_bajo_edge</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>organico_bajo_edge</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>organico_bajo_edge</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>organico_bajo_edge</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>poly_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>subpoly_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>original_pattern</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>cluster_pattern</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>match</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>match_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Patrón</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Exactitud (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>93.33333333333333</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>73.80952380952381</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Polygons_analysis/Santa_Fe_NM/clustering_analysis/urban_pattern_analysis.xlsx
+++ b/Code/Polygons_analysis/Santa_Fe_NM/clustering_analysis/urban_pattern_analysis.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,180 +539,241 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3980562286972936</v>
+        <v>1.490379233433833</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4771096363163967</v>
+        <v>1.63688267698455</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4834362711316737</v>
+        <v>1.393049155197679</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5172275201011114</v>
+        <v>1.547393202587765</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01941037597963736</v>
+        <v>1.073885817808838</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3353998088077557</v>
+        <v>-0.3352724687766004</v>
       </c>
       <c r="H2" t="n">
-        <v>0.922081229227981</v>
+        <v>2.080882856839391</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5707977703420917</v>
+        <v>1.70641768655892</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5622165002683626</v>
+        <v>1.679267725905583</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.3308916117045437</v>
+        <v>-0.3396486219372844</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.8050684065647882</v>
+        <v>-0.7822664090774851</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9455738782878638</v>
+        <v>2.127171378120284</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8088290364074412</v>
+        <v>0.7890422683320102</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9170771162554328</v>
+        <v>0.6773318599216629</v>
       </c>
       <c r="P2" t="n">
-        <v>1.270001213050933</v>
+        <v>1.031419017212834</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2144898162711851</v>
+        <v>-0.03999175416911932</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1347402299711626</v>
+        <v>-0.04516962057132622</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.223889469916504</v>
+        <v>-0.5420866432868269</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8759649004370724</v>
+        <v>0.04210410834402695</v>
       </c>
       <c r="C3" t="n">
-        <v>0.803818194866546</v>
+        <v>0.05945978412045418</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9091387547596637</v>
+        <v>0.04101056197128856</v>
       </c>
       <c r="E3" t="n">
-        <v>0.880067123813173</v>
+        <v>0.01004003319809919</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0371220916318843</v>
+        <v>-0.2671752104115031</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2417893146629527</v>
+        <v>-0.2071008168623838</v>
       </c>
       <c r="H3" t="n">
-        <v>0.007360665911354647</v>
+        <v>0.09114694455436108</v>
       </c>
       <c r="I3" t="n">
-        <v>0.823645905882227</v>
+        <v>0.01705324640584807</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8082501639286575</v>
+        <v>0.0196801386835328</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.2433210500643311</v>
+        <v>-0.2044447996551491</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.6450196373580284</v>
+        <v>-0.3680195541133633</v>
       </c>
       <c r="M3" t="n">
-        <v>0.140195421303922</v>
+        <v>0.06479876691201107</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2690506857492391</v>
+        <v>0.2125470167773804</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6231617800177937</v>
+        <v>0.2986656185486195</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4267108126866304</v>
+        <v>0.2851125529444468</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3895428107140299</v>
+        <v>0.1323462016793051</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.09220032557098554</v>
+        <v>0.4062902007485615</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.5420866432868269</v>
+        <v>0.3472902368411429</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.2229436477108874</v>
+        <v>0.1633695995334425</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.234404995666578</v>
+        <v>0.06315779202580532</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2501348396030684</v>
+        <v>0.1798965020324247</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.2552696218687198</v>
+        <v>0.2936897554144886</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0002264880436586643</v>
+        <v>1.213068797071222</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1216785243037957</v>
+        <v>-0.3374985441614636</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.2468697499156411</v>
+        <v>0.8897017323620749</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2620321928755216</v>
+        <v>0.2227681420742494</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.2576910885953841</v>
+        <v>0.2200384484639917</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1206805697964556</v>
+        <v>-0.347217778264707</v>
       </c>
       <c r="L4" t="n">
-        <v>0.300687526731681</v>
+        <v>-0.7571515065205391</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.270845757050622</v>
+        <v>0.8480489889272458</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.2515611678085485</v>
+        <v>0.5751973491226084</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.3276421350038249</v>
+        <v>1.073663870419106</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.3955617651717978</v>
+        <v>1.089850113936227</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.109136325767516</v>
+        <v>0.5643217359229785</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.02363735124951202</v>
+        <v>-0.9327045228380418</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1319820777493114</v>
+        <v>-0.5420866432868269</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.2646117530939455</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.2942622617919178</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.2530077298642852</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.2439404153976687</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.08149658745579669</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3688599998030365</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.4966501224124277</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.2645964423871877</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.2644734624860541</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.3669698995510786</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.6984541263556283</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.4610008503849604</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.4627821002507233</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.6295396917969549</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.6571884016922438</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.2475172750282693</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.4364147581031009</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.3420024148348645</v>
       </c>
     </row>
   </sheetData>
@@ -726,7 +787,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,14 +826,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="C2" t="n">
-        <v>12.5</v>
+        <v>75</v>
       </c>
       <c r="D2" t="n">
         <v>42.85714285714285</v>
@@ -781,19 +842,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>33.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="H2" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -809,41 +870,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>72.72727272727273</v>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28.57142857142857</v>
+      </c>
+      <c r="E5" t="n">
         <v>100</v>
       </c>
-      <c r="C4" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="G4" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="H4" t="n">
-        <v>50</v>
+      <c r="F5" t="n">
+        <v>25</v>
+      </c>
+      <c r="G5" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1707,7 +1796,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1809,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1733,7 +1822,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1835,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1874,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1798,7 +1887,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1811,7 +1900,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1824,7 +1913,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1926,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -1863,7 +1952,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1965,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1915,7 +2004,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -1928,7 +2017,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1941,7 +2030,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1954,7 +2043,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1980,7 +2069,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2173,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2186,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2225,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2238,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2162,7 +2251,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2175,7 +2264,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2277,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2290,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2303,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2289,12 +2378,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2310,12 +2399,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac_alto_edge</t>
         </is>
       </c>
     </row>
@@ -2352,12 +2441,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac_alto_edge</t>
         </is>
       </c>
     </row>
@@ -2373,12 +2462,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2394,12 +2483,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac_bajo_edge</t>
         </is>
       </c>
     </row>
@@ -2436,12 +2525,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2457,12 +2546,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac_bajo_edge</t>
         </is>
       </c>
     </row>
@@ -2478,12 +2567,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac_alto_edge</t>
         </is>
       </c>
     </row>
@@ -2499,12 +2588,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac_alto_edge</t>
         </is>
       </c>
     </row>
@@ -2520,12 +2609,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac_bajo_edge</t>
         </is>
       </c>
     </row>
@@ -2541,12 +2630,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac_alto_edge</t>
         </is>
       </c>
     </row>
@@ -2562,12 +2651,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac_bajo_edge</t>
         </is>
       </c>
     </row>
@@ -2583,12 +2672,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac_bajo_edge</t>
         </is>
       </c>
     </row>
@@ -2625,12 +2714,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac_alto_edge</t>
         </is>
       </c>
     </row>
@@ -2646,12 +2735,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac_alto_edge</t>
         </is>
       </c>
     </row>
@@ -2667,12 +2756,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2709,12 +2798,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2730,12 +2819,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac_alto_edge</t>
         </is>
       </c>
     </row>
@@ -2751,12 +2840,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac_alto_edge</t>
         </is>
       </c>
     </row>
@@ -2772,12 +2861,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2793,12 +2882,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac_alto_edge</t>
         </is>
       </c>
     </row>
@@ -2898,12 +2987,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac_bajo_edge</t>
         </is>
       </c>
     </row>
@@ -2919,12 +3008,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac_alto_edge</t>
         </is>
       </c>
     </row>
@@ -2940,12 +3029,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3003,12 +3092,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac_alto_edge</t>
         </is>
       </c>
     </row>
@@ -3024,12 +3113,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3045,12 +3134,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac_bajo_edge</t>
         </is>
       </c>
     </row>
@@ -3066,12 +3155,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>organico_bajo_edge</t>
+          <t>cul_de_sac_bajo_edge</t>
         </is>
       </c>
     </row>
@@ -3087,12 +3176,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac_alto_edge</t>
         </is>
       </c>
     </row>
@@ -3108,12 +3197,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac_alto_edge</t>
         </is>
       </c>
     </row>
@@ -3224,15 +3313,15 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -3245,12 +3334,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E3" t="b">
@@ -3271,7 +3360,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3280,11 +3369,11 @@
         </is>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -3297,20 +3386,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -3323,12 +3412,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E6" t="b">
@@ -3354,15 +3443,15 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -3401,20 +3490,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -3427,12 +3516,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E10" t="b">
@@ -3453,12 +3542,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E11" t="b">
@@ -3479,20 +3568,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -3505,12 +3594,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E13" t="b">
@@ -3536,15 +3625,15 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -3557,12 +3646,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E15" t="b">
@@ -3583,20 +3672,20 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -3640,15 +3729,15 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -3661,12 +3750,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E19" t="b">
@@ -3687,12 +3776,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E20" t="b">
@@ -3713,7 +3802,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -3722,11 +3811,11 @@
         </is>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -3739,12 +3828,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E22" t="b">
@@ -3770,7 +3859,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E23" t="b">
@@ -3791,20 +3880,20 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -3822,15 +3911,15 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -3848,15 +3937,15 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -3978,15 +4067,15 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -3999,12 +4088,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E32" t="b">
@@ -4025,12 +4114,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E33" t="b">
@@ -4103,20 +4192,20 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -4129,12 +4218,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E37" t="b">
@@ -4155,12 +4244,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E38" t="b">
@@ -4181,12 +4270,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E39" t="b">
@@ -4207,20 +4296,20 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -4233,12 +4322,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E41" t="b">
@@ -4259,7 +4348,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -4268,11 +4357,11 @@
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -4313,7 +4402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4336,11 +4425,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93.33333333333333</v>
+        <v>86.36363636363636</v>
       </c>
     </row>
     <row r="3">
@@ -4350,26 +4439,36 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.80952380952381</v>
+        <v>66.66666666666666</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37.5</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>hibrido</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Code/Polygons_analysis/Santa_Fe_NM/clustering_analysis/urban_pattern_analysis.xlsx
+++ b/Code/Polygons_analysis/Santa_Fe_NM/clustering_analysis/urban_pattern_analysis.xlsx
@@ -535,181 +535,181 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.490379233433833</v>
+        <v>-0.2646117530939455</v>
       </c>
       <c r="C2" t="n">
-        <v>1.63688267698455</v>
+        <v>-0.2942622617919178</v>
       </c>
       <c r="D2" t="n">
-        <v>1.393049155197679</v>
+        <v>-0.2530077298642852</v>
       </c>
       <c r="E2" t="n">
-        <v>1.547393202587765</v>
+        <v>-0.2439404153976687</v>
       </c>
       <c r="F2" t="n">
-        <v>1.073885817808838</v>
+        <v>0.08149658745579669</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3352724687766004</v>
+        <v>0.3688599998030365</v>
       </c>
       <c r="H2" t="n">
-        <v>2.080882856839391</v>
+        <v>-0.4966501224124277</v>
       </c>
       <c r="I2" t="n">
-        <v>1.70641768655892</v>
+        <v>-0.2645964423871877</v>
       </c>
       <c r="J2" t="n">
-        <v>1.679267725905583</v>
+        <v>-0.2644734624860541</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.3396486219372844</v>
+        <v>0.3669698995510786</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.7822664090774851</v>
+        <v>0.6984541263556283</v>
       </c>
       <c r="M2" t="n">
-        <v>2.127171378120284</v>
+        <v>-0.4610008503849604</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7890422683320102</v>
+        <v>-0.4627821002507233</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6773318599216629</v>
+        <v>-0.6295396917969549</v>
       </c>
       <c r="P2" t="n">
-        <v>1.031419017212834</v>
+        <v>-0.6571884016922438</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.03999175416911932</v>
+        <v>-0.2475172750282693</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.04516962057132622</v>
+        <v>-0.4364147581031009</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.5420866432868269</v>
+        <v>-0.3420024148348645</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04210410834402695</v>
+        <v>0.1633695995334425</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05945978412045418</v>
+        <v>0.06315779202580532</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04101056197128856</v>
+        <v>0.1798965020324247</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01004003319809919</v>
+        <v>0.2936897554144886</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2671752104115031</v>
+        <v>1.213068797071222</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2071008168623838</v>
+        <v>-0.3374985441614636</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09114694455436108</v>
+        <v>0.8897017323620749</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01705324640584807</v>
+        <v>0.2227681420742494</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0196801386835328</v>
+        <v>0.2200384484639917</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.2044447996551491</v>
+        <v>-0.347217778264707</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.3680195541133633</v>
+        <v>-0.7571515065205391</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06479876691201107</v>
+        <v>0.8480489889272458</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2125470167773804</v>
+        <v>0.5751973491226084</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2986656185486195</v>
+        <v>1.073663870419106</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2851125529444468</v>
+        <v>1.089850113936227</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1323462016793051</v>
+        <v>0.5643217359229785</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4062902007485615</v>
+        <v>-0.9327045228380418</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3472902368411429</v>
+        <v>-0.5420866432868269</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1633695995334425</v>
+        <v>1.490379233433833</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06315779202580532</v>
+        <v>1.63688267698455</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1798965020324247</v>
+        <v>1.393049155197679</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2936897554144886</v>
+        <v>1.547393202587765</v>
       </c>
       <c r="F4" t="n">
-        <v>1.213068797071222</v>
+        <v>1.073885817808838</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3374985441614636</v>
+        <v>-0.3352724687766004</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8897017323620749</v>
+        <v>2.080882856839391</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2227681420742494</v>
+        <v>1.70641768655892</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2200384484639917</v>
+        <v>1.679267725905583</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.347217778264707</v>
+        <v>-0.3396486219372844</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.7571515065205391</v>
+        <v>-0.7822664090774851</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8480489889272458</v>
+        <v>2.127171378120284</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5751973491226084</v>
+        <v>0.7890422683320102</v>
       </c>
       <c r="O4" t="n">
-        <v>1.073663870419106</v>
+        <v>0.6773318599216629</v>
       </c>
       <c r="P4" t="n">
-        <v>1.089850113936227</v>
+        <v>1.031419017212834</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5643217359229785</v>
+        <v>-0.03999175416911932</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.9327045228380418</v>
+        <v>-0.04516962057132622</v>
       </c>
       <c r="S4" t="n">
         <v>-0.5420866432868269</v>
@@ -718,62 +718,62 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2646117530939455</v>
+        <v>0.04210410834402695</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2942622617919178</v>
+        <v>0.05945978412045418</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2530077298642852</v>
+        <v>0.04101056197128856</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2439404153976687</v>
+        <v>0.01004003319809919</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08149658745579669</v>
+        <v>-0.2671752104115031</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3688599998030365</v>
+        <v>-0.2071008168623838</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.4966501224124277</v>
+        <v>0.09114694455436108</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2645964423871877</v>
+        <v>0.01705324640584807</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.2644734624860541</v>
+        <v>0.0196801386835328</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3669698995510786</v>
+        <v>-0.2044447996551491</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6984541263556283</v>
+        <v>-0.3680195541133633</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.4610008503849604</v>
+        <v>0.06479876691201107</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.4627821002507233</v>
+        <v>0.2125470167773804</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.6295396917969549</v>
+        <v>0.2986656185486195</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.6571884016922438</v>
+        <v>0.2851125529444468</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.2475172750282693</v>
+        <v>0.1323462016793051</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.4364147581031009</v>
+        <v>0.4062902007485615</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.3420024148348645</v>
+        <v>0.3472902368411429</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Polygons_analysis/Santa_Fe_NM/clustering_analysis/urban_pattern_analysis.xlsx
+++ b/Code/Polygons_analysis/Santa_Fe_NM/clustering_analysis/urban_pattern_analysis.xlsx
@@ -539,116 +539,116 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.2646117530939455</v>
+        <v>-0.1914149269452251</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2942622617919178</v>
+        <v>-0.2356772460373199</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2530077298642852</v>
+        <v>-0.214859130082172</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.2439404153976687</v>
+        <v>-0.1939745351620747</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08149658745579669</v>
+        <v>0.218189591897262</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3688599998030365</v>
+        <v>0.2998015444283365</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.4966501224124277</v>
+        <v>-0.4227310331732268</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2645964423871877</v>
+        <v>-0.2255337025463299</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.2644734624860541</v>
+        <v>-0.227660911008676</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3669698995510786</v>
+        <v>0.2984097886951181</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6984541263556283</v>
+        <v>0.5642060229307587</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.4610008503849604</v>
+        <v>-0.3805742484424762</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.4627821002507233</v>
+        <v>-0.4039174887431768</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.6295396917969549</v>
+        <v>-0.5627892232993544</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.6571884016922438</v>
+        <v>-0.6011616138772411</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.2475172750282693</v>
+        <v>-0.2351371682041504</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.4364147581031009</v>
+        <v>-0.4715977241124693</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.3420024148348645</v>
+        <v>-0.3642339957739714</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1633695995334425</v>
+        <v>1.490379233433833</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06315779202580532</v>
+        <v>1.63688267698455</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1798965020324247</v>
+        <v>1.393049155197679</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2936897554144886</v>
+        <v>1.547393202587765</v>
       </c>
       <c r="F3" t="n">
-        <v>1.213068797071222</v>
+        <v>1.073885817808838</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3374985441614636</v>
+        <v>-0.3352724687766004</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8897017323620749</v>
+        <v>2.080882856839391</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2227681420742494</v>
+        <v>1.70641768655892</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2200384484639917</v>
+        <v>1.679267725905583</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.347217778264707</v>
+        <v>-0.3396486219372844</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.7571515065205391</v>
+        <v>-0.7822664090774851</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8480489889272458</v>
+        <v>2.127171378120284</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5751973491226084</v>
+        <v>0.7890422683320102</v>
       </c>
       <c r="O3" t="n">
-        <v>1.073663870419106</v>
+        <v>0.6773318599216629</v>
       </c>
       <c r="P3" t="n">
-        <v>1.089850113936227</v>
+        <v>1.031419017212834</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5643217359229785</v>
+        <v>-0.03999175416911932</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.9327045228380418</v>
+        <v>-0.04516962057132622</v>
       </c>
       <c r="S3" t="n">
         <v>-0.5420866432868269</v>
@@ -657,123 +657,123 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.490379233433833</v>
+        <v>0.0447118325659416</v>
       </c>
       <c r="C4" t="n">
-        <v>1.63688267698455</v>
+        <v>0.08131257385263661</v>
       </c>
       <c r="D4" t="n">
-        <v>1.393049155197679</v>
+        <v>0.07062773698236817</v>
       </c>
       <c r="E4" t="n">
-        <v>1.547393202587765</v>
+        <v>0.02160190757188986</v>
       </c>
       <c r="F4" t="n">
-        <v>1.073885817808838</v>
+        <v>-0.4143762040605307</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3352724687766004</v>
+        <v>-0.2251311656680797</v>
       </c>
       <c r="H4" t="n">
-        <v>2.080882856839391</v>
+        <v>0.05530835245729986</v>
       </c>
       <c r="I4" t="n">
-        <v>1.70641768655892</v>
+        <v>0.03619561721539655</v>
       </c>
       <c r="J4" t="n">
-        <v>1.679267725905583</v>
+        <v>0.04779780246097445</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.3396486219372844</v>
+        <v>-0.2243960124624647</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.7822664090774851</v>
+        <v>-0.4487766980495544</v>
       </c>
       <c r="M4" t="n">
-        <v>2.127171378120284</v>
+        <v>0.001975090742012774</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7890422683320102</v>
+        <v>0.406002436942724</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6773318599216629</v>
+        <v>0.3419477310054719</v>
       </c>
       <c r="P4" t="n">
-        <v>1.031419017212834</v>
+        <v>0.4140982854489055</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.03999175416911932</v>
+        <v>-0.02420706012652327</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.04516962057132622</v>
+        <v>0.3838797559323349</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.5420866432868269</v>
+        <v>0.2817773531256092</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04210410834402695</v>
+        <v>-0.05907818709492065</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05945978412045418</v>
+        <v>-0.08277773615842957</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04101056197128856</v>
+        <v>-0.02386109952330581</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01004003319809919</v>
+        <v>0.005904559803935378</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2671752104115031</v>
+        <v>0.1938422358520863</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2071008168623838</v>
+        <v>-0.1797306091598974</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09114694455436108</v>
+        <v>0.5014301783330473</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01705324640584807</v>
+        <v>0.006289156010869964</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0196801386835328</v>
+        <v>-0.0146403390983116</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.2044447996551491</v>
+        <v>-0.1754693481551323</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.3680195541133633</v>
+        <v>-0.1923943455512497</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06479876691201107</v>
+        <v>0.5124834346219448</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2125470167773804</v>
+        <v>-0.2419222334626228</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2986656185486195</v>
+        <v>0.5924861744903839</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2851125529444468</v>
+        <v>0.3436800325466661</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1323462016793051</v>
+        <v>0.9447945116327923</v>
       </c>
       <c r="R5" t="n">
-        <v>0.4062902007485615</v>
+        <v>0.4106284848634811</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3472902368411429</v>
+        <v>0.5700340414739571</v>
       </c>
     </row>
   </sheetData>
@@ -830,10 +830,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27.27272727272727</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="C2" t="n">
-        <v>75</v>
+        <v>62.5</v>
       </c>
       <c r="D2" t="n">
         <v>42.85714285714285</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G2" t="n">
-        <v>66.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H2" t="n">
         <v>100</v>
@@ -886,10 +886,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>25</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -926,7 +926,7 @@
         <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G5" t="n">
         <v>33.33333333333333</v>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -1952,7 +1952,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_edge</t>
+          <t>cul_de_sac_bajo_edge</t>
         </is>
       </c>
     </row>
@@ -2483,12 +2483,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_edge</t>
+          <t>organico_bajo_edge</t>
         </is>
       </c>
     </row>
@@ -2546,12 +2546,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_edge</t>
+          <t>organico_bajo_edge</t>
         </is>
       </c>
     </row>
@@ -2609,12 +2609,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_edge</t>
+          <t>organico_bajo_edge</t>
         </is>
       </c>
     </row>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_edge</t>
+          <t>cul_de_sac_bajo_edge</t>
         </is>
       </c>
     </row>
@@ -2651,12 +2651,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_edge</t>
+          <t>organico_bajo_edge</t>
         </is>
       </c>
     </row>
@@ -2672,12 +2672,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_edge</t>
+          <t>organico_bajo_edge</t>
         </is>
       </c>
     </row>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_edge</t>
+          <t>cul_de_sac_bajo_edge</t>
         </is>
       </c>
     </row>
@@ -2824,7 +2824,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_edge</t>
+          <t>cul_de_sac_bajo_edge</t>
         </is>
       </c>
     </row>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_edge</t>
+          <t>cul_de_sac_bajo_edge</t>
         </is>
       </c>
     </row>
@@ -2987,12 +2987,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_edge</t>
+          <t>organico_bajo_edge</t>
         </is>
       </c>
     </row>
@@ -3134,12 +3134,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_edge</t>
+          <t>organico_bajo_edge</t>
         </is>
       </c>
     </row>
@@ -3155,12 +3155,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_edge</t>
+          <t>organico_bajo_edge</t>
         </is>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_edge</t>
+          <t>cul_de_sac_bajo_edge</t>
         </is>
       </c>
     </row>
@@ -3202,7 +3202,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_edge</t>
+          <t>cul_de_sac_bajo_edge</t>
         </is>
       </c>
     </row>
@@ -3412,7 +3412,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3421,11 +3421,11 @@
         </is>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -3443,15 +3443,15 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -3516,20 +3516,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E13" t="b">
@@ -3646,12 +3646,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E15" t="b">
@@ -3677,15 +3677,15 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4067,15 +4067,15 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -4097,11 +4097,11 @@
         </is>
       </c>
       <c r="E32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -4249,15 +4249,15 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -4270,20 +4270,20 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -4429,27 +4429,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>86.36363636363636</v>
+        <v>76.47058823529412</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Global</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66.66666666666666</v>
+        <v>72.22222222222221</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>56.25</v>
+        <v>61.90476190476191</v>
       </c>
     </row>
     <row r="5">
